--- a/DailyProgress.xlsx
+++ b/DailyProgress.xlsx
@@ -1,36 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inforonline-my.sharepoint.com/personal/albert_zhang_infor_com/Documents/Desktop/TimeSheet/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="11_F25DC773A252ABDACC1048AFA95F5C605ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6E26010-2A4A-4B96-AC99-E1BF8F21EB68}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20917" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -40,30 +19,30 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Courses</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
     <t>制作进步本</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Categories</t>
-  </si>
-  <si>
-    <t>Courses</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
     <t>Knowledge</t>
   </si>
   <si>
@@ -76,10 +55,10 @@
     <t>函数基本知识</t>
   </si>
   <si>
+    <t>Easy</t>
+  </si>
+  <si>
     <t>数列极限</t>
-  </si>
-  <si>
-    <t>Easy</t>
   </si>
   <si>
     <t>泰勒展开</t>
@@ -94,40 +73,189 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,8 +268,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -149,86 +463,364 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B0F0"/>
+        <b val="1"/>
+        <i val="1"/>
+        <strike val="1"/>
+        <u val="none"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="1"/>
+        <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
         <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
+        <b val="1"/>
+        <i val="1"/>
+        <color rgb="FF00B0F0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike/>
-        <u val="none"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFC00000"/>
+      <color rgb="00C00000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -277,7 +869,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -312,7 +904,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -486,176 +1078,175 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.5663716814159" customWidth="1"/>
+    <col min="3" max="3" width="26.7079646017699" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.7079646017699" customWidth="1"/>
+    <col min="5" max="5" width="6.70796460176991" customWidth="1"/>
+    <col min="6" max="6" width="9.42477876106195" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="13.9" spans="1:4">
+      <c r="A2" s="6">
+        <v>44839</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>44839</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="7" spans="1:4">
+      <c r="A7" s="6">
         <v>44839</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+    <row r="8" spans="1:4">
+      <c r="A8" s="6">
         <v>44840</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+    <row r="9" spans="1:1">
+      <c r="A9" s="6">
         <v>44841</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="8"/>
+    <row r="10" spans="1:1">
+      <c r="A10" s="6">
+        <v>44890</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D$1:D$1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Forgetten"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Difficult"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Familiar"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576 D1" xr:uid="{03EB5BA2-8025-4372-8782-B3B158C44CA2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D3:D1048576">
       <formula1>"Forgetten,Difficult,Familiar,Easy,Passedl,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{14D468EB-A7FF-4B37-B23F-5D18187CF0D8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"Forgetten,Difficult,Familiar,Easy,Passed,N/A"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>